--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="public_const" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>公开的常量</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>npc_dota_hero_windrunner</t>
+  </si>
+  <si>
+    <t>ARMOR_REDUCTION_FORMULA</t>
+  </si>
+  <si>
+    <t>value/(value + 500)</t>
+  </si>
+  <si>
+    <t>护甲减伤公式</t>
   </si>
   <si>
     <t>PLAYER_ARMS_SELECT_MAX</t>
@@ -443,6 +452,24 @@
   </si>
   <si>
     <t>无尽模式下小怪掉落概率</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>衰减</t>
+  </si>
+  <si>
+    <t>伤害结算</t>
+  </si>
+  <si>
+    <t>(造成的伤害*衰减 + (固定伤害 - 固定减伤))</t>
+  </si>
+  <si>
+    <t>固定减伤只会降低固定伤害,不会受其他影响</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1207,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1570,594 +1600,605 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5083333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:3">
-      <c r="A20" s="8" t="s">
+    <row r="20" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
+    <row r="21" ht="72" customHeight="1" spans="1:3">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="C27" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="B29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="10">
         <v>2</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A38" s="8" t="s">
+    <row r="38" ht="39" customHeight="1" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" ht="55.5" customHeight="1" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="39" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A39" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A40" s="8" t="s">
+    <row r="40" ht="55.5" customHeight="1" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>105</v>
       </c>
+      <c r="C41" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="A42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A43" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="10">
         <v>3</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="10">
         <v>50</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="C47" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="7">
         <v>1.5</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="9">
+      <c r="C48" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A49" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="10">
         <v>1.2</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" ht="39" customHeight="1" spans="1:3">
-      <c r="A50" s="8" t="s">
+    <row r="50" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A50" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51" ht="39" customHeight="1" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A52" s="8" t="s">
+    <row r="52" ht="39" customHeight="1" spans="1:3">
+      <c r="A52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:3">
-      <c r="A53" s="8" t="s">
+    <row r="53" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A53" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:3">
+      <c r="A54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2170,13 +2211,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:F56"/>
+  <dimension ref="A7:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="43.875" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="7" spans="1:6">
       <c r="A7">
@@ -2202,7 +2247,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2225,8 +2270,17 @@
         <f t="shared" ref="F8:F39" si="3">1000+A8*100+4*POWER(A8,2)</f>
         <v>1216</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2249,6 +2303,13 @@
         <f t="shared" si="3"/>
         <v>1336</v>
       </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <f>K9/(500+K9)</f>
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
@@ -2418,7 +2479,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>12</v>
       </c>
@@ -2438,6 +2499,9 @@
         <f t="shared" si="3"/>
         <v>2776</v>
       </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
@@ -2460,7 +2524,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2480,8 +2544,17 @@
         <f t="shared" si="3"/>
         <v>3184</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20">
+        <v>10000</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2501,8 +2574,14 @@
         <f t="shared" si="3"/>
         <v>3400</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="K21">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>16</v>
       </c>
@@ -2521,6 +2600,12 @@
       <c r="F22">
         <f t="shared" si="3"/>
         <v>3624</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22">
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:6">

--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="public_const" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
   <si>
     <t>公开的常量</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>技能裂变可刷新次数</t>
+  </si>
+  <si>
+    <t>PLAYER_RUNE_SELECT_MAX</t>
+  </si>
+  <si>
+    <t>玩家初始符文可选数量</t>
+  </si>
+  <si>
+    <t>PLAYER_RUNE_REFRESH_COUNT</t>
+  </si>
+  <si>
+    <t>符文可刷新次数</t>
+  </si>
+  <si>
+    <t>IS_AUTO_SELECT_RUNE</t>
+  </si>
+  <si>
+    <t>是否自动选择第一个符文(1是 0否)</t>
   </si>
   <si>
     <t>HREO_INIT_ITEM_NAME</t>
@@ -1600,10 +1618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1674,531 +1692,564 @@
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="6" t="s">
+    <row r="13" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="9" t="s">
+    <row r="18" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="C20" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7">
         <v>40</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="72" customHeight="1" spans="1:3">
-      <c r="A21" s="9" t="s">
+    <row r="22" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+    <row r="23" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+    <row r="24" ht="72" customHeight="1" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A24" s="6" t="s">
+    <row r="25" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A25" s="9" t="s">
+    <row r="26" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A26" s="6" t="s">
+    <row r="27" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A27" s="9" t="s">
+    <row r="28" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A28" s="6" t="s">
+    <row r="29" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A30" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="10" t="s">
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A34" s="6" t="s">
+    <row r="35" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A35" s="9" t="s">
+    <row r="36" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A36" s="6" t="s">
+    <row r="37" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A37" s="9" t="s">
+    <row r="38" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="10">
         <v>2</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" ht="39" customHeight="1" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A39" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" ht="55.5" customHeight="1" spans="1:3">
-      <c r="A40" s="6" t="s">
+    <row r="41" ht="39" customHeight="1" spans="1:3">
+      <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A41" s="9" t="s">
+    <row r="42" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A42" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A42" s="6" t="s">
+    <row r="43" ht="55.5" customHeight="1" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="10">
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A46" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="10">
         <v>3</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A45" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A46" s="6" t="s">
+    <row r="47" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A47" s="9" t="s">
+    <row r="48" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A48" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A50" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="10">
         <v>50</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="C50" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="7">
         <v>1.5</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A49" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="10">
+      <c r="C51" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="10">
         <v>1.2</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" ht="39" customHeight="1" spans="1:3">
-      <c r="A51" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" ht="39" customHeight="1" spans="1:3">
-      <c r="A52" s="6" t="s">
+    <row r="53" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A53" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A53" s="9" t="s">
+    <row r="54" ht="39" customHeight="1" spans="1:3">
+      <c r="A54" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:3">
-      <c r="A54" s="9" t="s">
+    <row r="55" ht="39" customHeight="1" spans="1:3">
+      <c r="A55" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="8" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2271,13 +2322,13 @@
         <v>1216</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2500,7 +2551,7 @@
         <v>2776</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2545,7 +2596,7 @@
         <v>3184</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L20">
         <v>10000</v>
@@ -2602,7 +2653,7 @@
         <v>3624</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L22">
         <v>5000</v>

--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="public_const" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="158">
   <si>
     <t>公开的常量</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>最大玩家数量</t>
+  </si>
+  <si>
+    <t>STORE_REFRESHES_SOUL_FORMULA</t>
+  </si>
+  <si>
+    <t>100+200*count</t>
+  </si>
+  <si>
+    <t>每回合商店刷新灵魂公式（count为刷新次数）</t>
+  </si>
+  <si>
+    <t>MYSTICAL_SHOP_BUY_ITEM</t>
+  </si>
+  <si>
+    <t>玩家可购买时间</t>
   </si>
   <si>
     <t>EXP_EQUATION</t>
@@ -1618,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1746,45 +1761,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+    <row r="12" ht="39" customHeight="1" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:3">
+    <row r="13" ht="39" customHeight="1" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="7">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:3">
       <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:3">
       <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>34</v>
@@ -1794,30 +1809,30 @@
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10" t="s">
         <v>40</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>41</v>
@@ -1827,19 +1842,19 @@
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:3">
       <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="10">
-        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>46</v>
@@ -1849,19 +1864,19 @@
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="7">
-        <v>40</v>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="B22" s="10">
+        <v>40</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>51</v>
@@ -1871,96 +1886,96 @@
       <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="7">
+        <v>40</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="8" t="s">
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" ht="72" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:3">
       <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="26" ht="72" customHeight="1" spans="1:3">
+      <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:3">
       <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:3">
       <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:3">
       <c r="A29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:3">
       <c r="A30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:3">
       <c r="A31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>77</v>
@@ -1971,40 +1986,40 @@
         <v>78</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>86</v>
@@ -2015,57 +2030,57 @@
         <v>87</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:3">
       <c r="A37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:3">
       <c r="A38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:3">
       <c r="A39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:3">
       <c r="A40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="10">
-        <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="39" customHeight="1" spans="1:3">
+    <row r="41" ht="22.5" customHeight="1" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2080,41 +2095,41 @@
       <c r="A42" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="43" ht="39" customHeight="1" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" ht="55.5" customHeight="1" spans="1:3">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:3">
       <c r="A44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="11" t="s">
+    </row>
+    <row r="45" ht="55.5" customHeight="1" spans="1:3">
+      <c r="A45" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>114</v>
@@ -2124,52 +2139,52 @@
       <c r="A46" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="10">
-        <v>3</v>
+      <c r="B46" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:3">
       <c r="A49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="50" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A50" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" s="10">
-        <v>50</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>127</v>
@@ -2179,77 +2194,99 @@
       <c r="A51" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="7">
-        <v>1.5</v>
+      <c r="B51" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="10">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:3">
       <c r="A53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="7" t="s">
         <v>133</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1.5</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" ht="39" customHeight="1" spans="1:3">
+    <row r="54" ht="22.5" customHeight="1" spans="1:3">
       <c r="A54" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="11" t="s">
+    </row>
+    <row r="55" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A55" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" ht="39" customHeight="1" spans="1:3">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="8" t="s">
+    </row>
+    <row r="56" ht="39" customHeight="1" spans="1:3">
+      <c r="A56" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="56" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="11" t="s">
+    </row>
+    <row r="57" ht="39" customHeight="1" spans="1:3">
+      <c r="A57" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" ht="16.5" spans="1:3">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="11" t="s">
+    </row>
+    <row r="58" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A58" s="9" t="s">
         <v>146</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:3">
+      <c r="A59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2322,13 +2359,13 @@
         <v>1216</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2551,7 +2588,7 @@
         <v>2776</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2596,7 +2633,7 @@
         <v>3184</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L20">
         <v>10000</v>
@@ -2653,7 +2690,7 @@
         <v>3624</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L22">
         <v>5000</v>

--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="17385" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="public_const" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>公开的常量</t>
   </si>
   <si>
     <t>常量值</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>const_key</t>
@@ -42,449 +45,52 @@
     <t>value</t>
   </si>
   <si>
-    <t>DEFAULTE_HERO</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_windrunner</t>
-  </si>
-  <si>
-    <t>ARMOR_REDUCTION_FORMULA</t>
-  </si>
-  <si>
-    <t>value/(value + 500)</t>
-  </si>
-  <si>
-    <t>护甲减伤公式</t>
-  </si>
-  <si>
-    <t>PLAYER_ARMS_SELECT_MAX</t>
-  </si>
-  <si>
-    <t>玩家初始技能裂变可选数量</t>
-  </si>
-  <si>
-    <t>PLAYER_REFRESH_COUNT</t>
-  </si>
-  <si>
-    <t>技能裂变可刷新次数</t>
-  </si>
-  <si>
-    <t>PLAYER_RUNE_SELECT_MAX</t>
-  </si>
-  <si>
-    <t>玩家初始符文可选数量</t>
-  </si>
-  <si>
-    <t>PLAYER_RUNE_REFRESH_COUNT</t>
-  </si>
-  <si>
-    <t>符文可刷新次数</t>
-  </si>
-  <si>
-    <t>IS_AUTO_SELECT_RUNE</t>
-  </si>
-  <si>
-    <t>是否自动选择第一个符文(1是 0否)</t>
-  </si>
-  <si>
-    <t>HREO_INIT_ITEM_NAME</t>
-  </si>
-  <si>
-    <t>item_arms_t0_1</t>
-  </si>
-  <si>
-    <t>玩家初始物品名字</t>
-  </si>
-  <si>
     <t>PLAYER_COUNT</t>
   </si>
   <si>
     <t>最大玩家数量</t>
   </si>
   <si>
-    <t>STORE_REFRESHES_SOUL_FORMULA</t>
-  </si>
-  <si>
-    <t>100+200*count</t>
-  </si>
-  <si>
-    <t>每回合商店刷新灵魂公式（count为刷新次数）</t>
-  </si>
-  <si>
     <t>MYSTICAL_SHOP_BUY_ITEM</t>
   </si>
   <si>
-    <t>玩家可购买时间</t>
+    <t>灵魂商店玩家可购买时间</t>
   </si>
   <si>
-    <t>EXP_EQUATION</t>
+    <t>PLAYER_COUNT_REF_MONSTER</t>
   </si>
   <si>
-    <t>600+LEVEL*100+5*LEVEL^2</t>
+    <t>2|2|2|2</t>
   </si>
   <si>
-    <t>英雄等级=&gt;每级经验公式 关键字 LEVEL(英雄等级)</t>
-  </si>
-  <si>
-    <t>INVEST_UP_EQUATION</t>
-  </si>
-  <si>
-    <t>50+(LEVEL-1)*10</t>
-  </si>
-  <si>
-    <t>投资功能=&gt;每次升级所需金币公式 LEVEL(投资等级)</t>
-  </si>
-  <si>
-    <t>INVEST_GET_GOLD_EQ</t>
-  </si>
-  <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t>投资功能=&gt;每级获取金币公式关键字 LEVEL(投资等级) 暂时没用</t>
-  </si>
-  <si>
-    <t>PLAYER_COM_RUNE_USE_MAX</t>
-  </si>
-  <si>
-    <t>单人普通符文宝箱最大使用数量(弃用)</t>
-  </si>
-  <si>
-    <t>PLAYER_ADV_RUNE_USE_MAX</t>
-  </si>
-  <si>
-    <t>单人史诗符文宝箱最大使用数量(弃用)</t>
-  </si>
-  <si>
-    <t>PLAYER_TREASURE_USE_MAX</t>
-  </si>
-  <si>
-    <t>单人宝物宝箱最大使用数量(弃用)</t>
-  </si>
-  <si>
-    <t>PLAYER_ROUND_GOLD_EQUATION</t>
-  </si>
-  <si>
-    <t>500+100*(round-1)</t>
-  </si>
-  <si>
-    <t>每回合金币公式</t>
-  </si>
-  <si>
-    <t>PLAYER_ROUND_WOOD_EQUATION</t>
-  </si>
-  <si>
-    <t>25+round*10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每回合木材公式 </t>
-  </si>
-  <si>
-    <t>ITEM_GENERAL_BUNDLEWOOD_MAX</t>
-  </si>
-  <si>
-    <t>地图木材自动刷新最大上线</t>
-  </si>
-  <si>
-    <t>ITEM_GENERAL_GOLDBAG_MAX</t>
-  </si>
-  <si>
-    <t>地图金币自动刷新最大上线</t>
-  </si>
-  <si>
-    <t>ITEM_GENERAL_BUNDLEWOOD_EQUATION</t>
-  </si>
-  <si>
-    <t>20+round</t>
-  </si>
-  <si>
-    <t>地图木材获取值</t>
-  </si>
-  <si>
-    <t>ITEM_GENERAL_GOLDBAG_EQUATION</t>
-  </si>
-  <si>
-    <t>60+round*10</t>
-  </si>
-  <si>
-    <t>地图金币获取值</t>
-  </si>
-  <si>
-    <t>MONSTER_DROP_TREASURE_PROB</t>
-  </si>
-  <si>
-    <t>200|500|1000|1500|3000|10000|20000|30000</t>
-  </si>
-  <si>
-    <t>大约多少只小怪掉落一个全体宝物 配置几个最大掉落就几次
-例子 =&gt; 500|1000|2000|4000 结果=&gt; 最大掉落4次 第1次为500分之1 第2次为1000分之1 第3次为2000分之1 第4次为4000分之一 第4次掉落后不会再掉落</t>
-  </si>
-  <si>
-    <t>EQUIPMENT_UPGRADE_GOLD</t>
-  </si>
-  <si>
-    <t>500|1000|2000|4000|6000</t>
-  </si>
-  <si>
-    <t>对应等级刷新装备所需金币 第一个从0级开始 用于解锁装备</t>
+    <t>玩家数对应每周期刷怪数量比例</t>
   </si>
   <si>
     <t>PLAYER_COUNT_MONSTER_MAX</t>
   </si>
   <si>
-    <t>0|5|10|15|20|20</t>
+    <t>0|0|0|0</t>
   </si>
   <si>
     <t>玩家数对应怪物上限增加值</t>
   </si>
   <si>
-    <t>PLAYER_COUNT_MONSTER_EXP_PER</t>
+    <t>CREATUR_NORMAL_DROP_HP</t>
   </si>
   <si>
-    <t>1|1|1|1|1|1</t>
+    <t>普通小怪掉落绿瓶概率(整数,千分比)</t>
   </si>
   <si>
-    <t>玩家数对应怪物击杀经验比</t>
+    <t>CREATUR_NORMAL_DROP_MP</t>
   </si>
   <si>
-    <t>PLAYER_COUNT_REF_MONSTER</t>
+    <t>普通小怪掉落蓝瓶概率(整数,千分比)</t>
   </si>
   <si>
-    <t>2|3|4|5|5|6</t>
+    <t>PLAYER_REFRESH_COUNT_CONFIG</t>
   </si>
   <si>
-    <t>玩家数对应每周期刷怪数量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_MONSTER_HP</t>
-  </si>
-  <si>
-    <t>1|1.1|1.15|1.2|1.25|1.3</t>
-  </si>
-  <si>
-    <t>玩家数对应怪物血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_BOSS_HP</t>
-  </si>
-  <si>
-    <t>1|1.8|2.6|3.4|4.2|5</t>
-  </si>
-  <si>
-    <t>玩家数对应BOSS血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_LEADER_HP</t>
-  </si>
-  <si>
-    <t>玩家数对应首领血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_EQUIP_BOSS_HP</t>
-  </si>
-  <si>
-    <t>玩家数对应存档BOSS血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_KILL_MONSTE_GOLD</t>
-  </si>
-  <si>
-    <t>玩家数对应击杀金币比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_TEAM_BOSS_HP</t>
-  </si>
-  <si>
-    <t>玩家数对应团队BOSS血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_SOUL_BOSS_HP</t>
-  </si>
-  <si>
-    <t>1|1.5|2|2.5|3|3.5</t>
-  </si>
-  <si>
-    <t>玩家数对应魂武BOSS血量比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_BOSS_ATTACK</t>
-  </si>
-  <si>
-    <t>1|1.2|1.3|1.35|1.4|1.5</t>
-  </si>
-  <si>
-    <t>玩家数对应所有boss攻击力比例</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_MINE_MAX</t>
-  </si>
-  <si>
-    <t>0|3|5|7|9|11</t>
-  </si>
-  <si>
-    <t>玩家数对应木箱上限增加值</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_GOLDBAG_MAX</t>
-  </si>
-  <si>
-    <t>0|3|6|9|12|15</t>
-  </si>
-  <si>
-    <t>玩家数对应地板金币上限增加值</t>
-  </si>
-  <si>
-    <t>PLAYER_COUNT_BUNDLEWOOD_MAX</t>
-  </si>
-  <si>
-    <t>0|2|4|6|7|8</t>
-  </si>
-  <si>
-    <t>玩家数对应地板木材上限增加值</t>
-  </si>
-  <si>
-    <t>MAXIMUM_TREASURE_REFRESH_TIMES</t>
-  </si>
-  <si>
-    <t>单局游戏每个玩家宝物初始刷新次数</t>
-  </si>
-  <si>
-    <t>STORE_REFRESHES_GOLD_FORMULA</t>
-  </si>
-  <si>
-    <t>2000+2000*count</t>
-  </si>
-  <si>
-    <t>每回合商店刷新金币公式（回合结束后count会清0 count为刷新次数）</t>
-  </si>
-  <si>
-    <t>AM_EQUIP_TREPANNING_LEVEL_COUNT_MAX</t>
-  </si>
-  <si>
-    <t>0|0|0|0|1|1</t>
-  </si>
-  <si>
-    <t>射手装备等级对应最大开孔数量( 等级从 0 开始 弃用)</t>
-  </si>
-  <si>
-    <t>STRENGTH_ATTRIBUTE_CONVERSION</t>
-  </si>
-  <si>
-    <t>TotalHealthPct:eq:100*v/(5000+v)|null</t>
-  </si>
-  <si>
-    <t>英雄力量属性提供的其他属性 因为是数组所以没有的时候必须填写 null|null (获得属性:类型:值 例子1、BaseAttack:im:0.4 每一点力量获得 0.4攻击力 例子2 BaseAttack:eq:100*v/(5000+v) v为当前力量)</t>
-  </si>
-  <si>
-    <t>AGILITY_ATTRIBUTE_CONVERSION</t>
-  </si>
-  <si>
-    <t>null|null</t>
-  </si>
-  <si>
-    <t>英雄敏捷属性提供的其他属性</t>
-  </si>
-  <si>
-    <t>INTELLECT_ATTRIBUTE_CONVERSION</t>
-  </si>
-  <si>
-    <t>英雄智力属性提供的其他属性</t>
-  </si>
-  <si>
-    <t>AM_EQUIP_TREPANNING_COUNT_MAX</t>
-  </si>
-  <si>
-    <t>射手装备栏装备最大开孔数</t>
-  </si>
-  <si>
-    <t>AM_EQUIP_TREPANNING_NUM_HOLE_SAW_COUNT_COUNT</t>
-  </si>
-  <si>
-    <t>1|2|4</t>
-  </si>
-  <si>
-    <t>射手装备栏装备开孔数对应所需开孔器数量</t>
-  </si>
-  <si>
-    <t>SIXIANG_JIAN_HUN_EQUATION</t>
-  </si>
-  <si>
-    <t>10000+(LEVEL-1)*1500+(LEVEL/10)*2000</t>
-  </si>
-  <si>
-    <t>四象所需箭魂公式</t>
-  </si>
-  <si>
-    <t>SIXIANG_JING_HUA_EQUATION</t>
-  </si>
-  <si>
-    <t>(LEVEL-1)*50</t>
-  </si>
-  <si>
-    <t>四象所需精华公式</t>
-  </si>
-  <si>
-    <t>SIXIANG_LEVEL_MAX</t>
-  </si>
-  <si>
-    <t>四象最高等级</t>
-  </si>
-  <si>
-    <t>HIGHLY_DIFFICULT_HP</t>
-  </si>
-  <si>
-    <t>高难血量倍率</t>
-  </si>
-  <si>
-    <t>HIGHLY_DIFFICULT_ATTACK</t>
-  </si>
-  <si>
-    <t>高难攻击倍率</t>
-  </si>
-  <si>
-    <t>LICKING_DOG_HEALTH_MULTIPLIER</t>
-  </si>
-  <si>
-    <t>1|1.4|1.8|2.2|2.6|3</t>
-  </si>
-  <si>
-    <t>舔狗血量倍率</t>
-  </si>
-  <si>
-    <t>EQUIP_SHOP_SYSTEM_UPGRADE_WOOD</t>
-  </si>
-  <si>
-    <t>500|1000|1500|2000|2500|3000|3500</t>
-  </si>
-  <si>
-    <t>升级所需木材1-&gt;2 2-&gt;3 3-&gt;4 4-&gt;5 5-&gt;6 最大升级到6级 所以需要5个配置</t>
-  </si>
-  <si>
-    <t>EQUIP_SHOP_SYSTEM_UPGRADE_GOLD</t>
-  </si>
-  <si>
-    <t>0|0|0|0|0|0|0|0</t>
-  </si>
-  <si>
-    <t>升级所需金币1-&gt;2 2-&gt;3 3-&gt;4 4-&gt;5 5-&gt;6 最大升级到6级 所以需要5个配置</t>
-  </si>
-  <si>
-    <t>ENDLESS_HP_PLAYER</t>
-  </si>
-  <si>
-    <t>1|3|3|3|5|5</t>
-  </si>
-  <si>
-    <t>无尽血量倍率</t>
-  </si>
-  <si>
-    <t>ENDLESS_MONSTER_DROP_TREASURE_PROB</t>
-  </si>
-  <si>
-    <t>100|200|500|1000|1500|3000|10000|20000</t>
-  </si>
-  <si>
-    <t>无尽模式下小怪掉落概率</t>
+    <t>符文基础刷新数量</t>
   </si>
   <si>
     <t>armor</t>
@@ -515,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,20 +131,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -688,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,7 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,12 +308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -900,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -910,55 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,10 +524,10 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,13 +536,142 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,52 +793,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,77 +856,74 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,18 +949,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,7 +1021,475 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{48BF36F2-5943-4476-95E9-2E637361F7BD}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9391CD81-E9FD-4350-AC81-E2EC50E9BA18}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="firstTotalCell" dxfId="8"/>
+      <tableStyleElement type="lastTotalCell" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="00FF0000"/>
@@ -1633,660 +1790,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.5083333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="39.675" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.0083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:3">
+    <row r="1" ht="31.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:3">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.5" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:3">
+    <row r="3" ht="30.5" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="10">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+    <row r="7" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+    <row r="8" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10">
-        <v>40</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="7">
-        <v>40</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" ht="72" customHeight="1" spans="1:3">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="10">
-        <v>2</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" ht="39" customHeight="1" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A44" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" ht="55.5" customHeight="1" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A48" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="10">
-        <v>3</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="10">
-        <v>50</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A53" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A54" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" ht="39" customHeight="1" spans="1:3">
-      <c r="A56" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" ht="39" customHeight="1" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" spans="1:3">
-      <c r="A59" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2359,13 +1970,13 @@
         <v>1216</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2588,7 +2199,7 @@
         <v>2776</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2633,7 +2244,7 @@
         <v>3184</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="L20">
         <v>10000</v>
@@ -2690,7 +2301,7 @@
         <v>3624</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="L22">
         <v>5000</v>

--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17385" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="public_const" sheetId="1" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{48BF36F2-5943-4476-95E9-2E637361F7BD}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1CF76343-4CC6-4231-9F2C-EEC6FD934049}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1477,7 +1477,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9391CD81-E9FD-4350-AC81-E2EC50E9BA18}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0333999A-1BC5-43FA-A9D7-B6E94D8AA31A}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1872,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
@@ -1883,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -1894,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>

--- a/excels/config/public_const.xlsx
+++ b/excels/config/public_const.xlsx
@@ -1468,7 +1468,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1CF76343-4CC6-4231-9F2C-EEC6FD934049}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BFEEB55E-35B0-4C5D-B487-77C3236BA6ED}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1477,7 +1477,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0333999A-1BC5-43FA-A9D7-B6E94D8AA31A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7AE0E9DF-DF95-45ED-A942-106E6AAD0780}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
